--- a/docs/自动化部署流程.xlsx
+++ b/docs/自动化部署流程.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>编号</t>
   </si>
@@ -66,6 +66,9 @@
 2、如果"deploy.replace[0].file.path"是文件夹，则替换文件夹下所有符合规则的文件</t>
   </si>
   <si>
+    <t>可选</t>
+  </si>
+  <si>
     <t>项目打包</t>
   </si>
   <si>
@@ -75,6 +78,39 @@
   </si>
   <si>
     <t>文件过滤</t>
+  </si>
+  <si>
+    <t>将需要上传的文件或文件夹复制到"tmp.upload.source.path"目录下，目录名称为仓库名称，并以".tmp"为文件后缀，表示是临时文件，需要删除的
+1、配置过滤条件
+2、配置待上传文件的路径</t>
+  </si>
+  <si>
+    <t>1、找到需要上传至远程服务器的文件或文件夹
+2、如果配置了过滤条件和待上传的文件路径，则上传的文件路径也进行过滤</t>
+  </si>
+  <si>
+    <t>1、tmp.upload.source.path: 待上传的文件</t>
+  </si>
+  <si>
+    <t>文件压缩</t>
+  </si>
+  <si>
+    <t>将tmp.upload.source.path目录下的文件进行压缩，文件后缀为tar.gz</t>
+  </si>
+  <si>
+    <t>将"tmp.upload.source.path"更新为压缩文件的路径</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>将文件上传到目标主机的目录"deploy.upload.target.outcome.path"下</t>
+  </si>
+  <si>
+    <t>部署运行</t>
+  </si>
+  <si>
+    <t>执行脚本运行部署</t>
   </si>
 </sst>
 </file>
@@ -82,12 +118,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +140,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +162,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,30 +213,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +231,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,45 +255,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,12 +291,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,151 +411,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +503,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -504,6 +544,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,26 +570,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -552,157 +581,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1058,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
@@ -1072,8 +1098,7 @@
     <col min="4" max="4" width="75.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="16382" width="9" style="1"/>
-    <col min="16383" max="16384" width="9" style="2"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:5">
@@ -1111,41 +1136,83 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="1:4">
+    <row r="4" ht="84" customHeight="1" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="68" customHeight="1" spans="2:3">
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="54" customHeight="1" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="48" customHeight="1" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" ht="54" customHeight="1" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+    <row r="8" ht="50" customHeight="1" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="61" customHeight="1" spans="2:3">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
